--- a/xlsx/白宫_intext.xlsx
+++ b/xlsx/白宫_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>白宫</t>
   </si>
@@ -29,7 +29,7 @@
     <t>白宫 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_白宫</t>
+    <t>政策_政策_美国_白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%80%B6%E7%89%B9%E5%B9%BF%E5%9C%BA_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA)</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8B%89%E7%AC%AC%E5%A5%A7%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>帕拉第奧式建築</t>
+    <t>帕拉第奥式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E9%81%93</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Family_of_Donald_Trump</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·亞當斯</t>
+    <t>约翰·亚当斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aquia_Creek_sandstone</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Benjamin_Henry_Latrobe</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%96%80%E7%BE%85</t>
   </si>
   <si>
-    <t>詹姆斯·門羅</t>
+    <t>詹姆斯·门罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A1%8C%E6%94%BF%E5%AE%98%E9%82%B8</t>
   </si>
   <si>
-    <t>白宮行政官邸</t>
+    <t>白宫行政官邸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>西奧多·羅斯福</t>
+    <t>西奥多·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E8%A5%BF%E5%8E%A2%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E8%8F%AF%C2%B7%E5%A1%94%E8%99%8E%E8%84%AB</t>
   </si>
   <si>
-    <t>威廉·霍華·塔虎脫</t>
+    <t>威廉·霍华·塔虎脱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%AD%E5%9C%86%E5%BD%A2%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%91%9E%C2%B7S%C2%B7%E6%9D%9C%E9%AD%AF%E9%96%80</t>
   </si>
   <si>
-    <t>哈瑞·S·杜魯門</t>
+    <t>哈瑞·S·杜鲁门</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eisenhower_Executive_Office_Building</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E7%88%BE%E5%AE%AE</t>
   </si>
   <si>
-    <t>布萊爾宮</t>
+    <t>布莱尔宫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/White_House_basement</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%96%BB</t>
   </si>
   <si>
-    <t>轉喻</t>
+    <t>转喻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Heritage_Site_(United_States)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家公園管理局</t>
+    <t>美国国家公园管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%85%AC%E5%9B%AD</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89%E5%B8%AB%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國建築師學會</t>
+    <t>美国建筑师学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91%E5%B8%88%E5%8D%8F%E4%BC%9A%E8%AF%84%E9%80%89%E7%9A%84%E7%BE%8E%E5%9B%BD%E6%9C%80%E5%96%9C%E7%88%B1%E5%BB%BA%E7%AD%91%E5%88%97%E8%A1%A8</t>
@@ -245,9 +245,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
   </si>
   <si>
@@ -299,21 +296,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>西奥多·罗斯福</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
   </si>
   <si>
-    <t>约翰·亚当斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>1812年战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
@@ -335,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%B1%B1%E8%8E%8A</t>
   </si>
   <si>
-    <t>國會山莊</t>
+    <t>国会山庄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
@@ -371,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9C%9C%E9%9B%AA%E5%85%92%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>蜜雪兒·歐巴馬</t>
+    <t>蜜雪儿·欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Instagram</t>
@@ -383,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%A1%82%E7%90%B3%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>賈桂琳·甘迺迪</t>
+    <t>贾桂琳·甘迺迪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Winterthur_Museum,_Garden_and_Library</t>
@@ -473,31 +461,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F</t>
   </si>
   <si>
-    <t>大衛營</t>
+    <t>大卫营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%AD%B8%E8%80%85</t>
   </si>
   <si>
-    <t>白宮學者</t>
+    <t>白宫学者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>海軍一號</t>
+    <t>海军一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>空軍一號</t>
+    <t>空军一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%A0%B1</t>
   </si>
   <si>
-    <t>太陽報</t>
+    <t>太阳报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AB</t>
@@ -509,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%BB%BA%E7%AF%89%E7%BE%A4</t>
   </si>
   <si>
-    <t>白宮建築群</t>
+    <t>白宫建筑群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/White_House_Chief_Floral_Designer</t>
@@ -695,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roosevelt_Room</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E7%B7%8A%E6%80%A5%E8%A1%8C%E5%8B%95%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>總統緊急行動中心</t>
+    <t>总统紧急行动中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/White_House_Social_Secretary</t>
@@ -737,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%BA%AD%E9%99%A2</t>
   </si>
   <si>
-    <t>白宮庭院</t>
+    <t>白宫庭院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E6%A9%A2%E5%9C%93%E5%BD%A2%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>白宮橢圓形廣場</t>
+    <t>白宫椭圆形广场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jacqueline_Kennedy_Garden</t>
@@ -755,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E6%8B%89%E6%B3%95%E8%91%89%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>白宮拉法葉廣場</t>
+    <t>白宫拉法叶广场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Lawn_(White_House)</t>
@@ -809,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E5%A4%A7%E9%81%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80)</t>
   </si>
   <si>
-    <t>憲法大道 (華盛頓特區)</t>
+    <t>宪法大道 (华盛顿特区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/66%E8%99%9F%E6%B4%B2%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>66號洲際公路</t>
+    <t>66号洲际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%ACH%E8%A1%97_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80)</t>
   </si>
   <si>
-    <t>第H街 (華盛頓特區)</t>
+    <t>第H街 (华盛顿特区)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jackson_Place</t>
@@ -839,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2339,7 +2327,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2365,10 +2353,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2394,10 +2382,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>15</v>
@@ -2423,10 +2411,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2452,10 +2440,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2481,10 +2469,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2510,10 +2498,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2539,10 +2527,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2568,10 +2556,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2597,10 +2585,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2626,10 +2614,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2655,10 +2643,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2684,10 +2672,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2713,10 +2701,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2742,10 +2730,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2771,10 +2759,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2800,10 +2788,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2829,10 +2817,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2858,10 +2846,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2887,10 +2875,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2916,10 +2904,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2945,10 +2933,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2974,10 +2962,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3003,10 +2991,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3032,10 +3020,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3061,10 +3049,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3090,10 +3078,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3119,10 +3107,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3148,10 +3136,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3177,10 +3165,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3206,10 +3194,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3235,10 +3223,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3264,10 +3252,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3293,10 +3281,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3322,10 +3310,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3351,10 +3339,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3380,10 +3368,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3409,10 +3397,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3438,10 +3426,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3467,10 +3455,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3496,10 +3484,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3554,10 +3542,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3583,10 +3571,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3612,10 +3600,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3641,10 +3629,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3670,10 +3658,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3728,10 +3716,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3786,10 +3774,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3815,10 +3803,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3844,10 +3832,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3873,10 +3861,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3902,10 +3890,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3931,10 +3919,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3989,10 +3977,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4018,10 +4006,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4047,10 +4035,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4076,10 +4064,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4105,10 +4093,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4134,10 +4122,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4163,10 +4151,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4221,10 +4209,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4250,10 +4238,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4279,10 +4267,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4308,10 +4296,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4337,10 +4325,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4366,10 +4354,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4395,10 +4383,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4424,10 +4412,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4453,10 +4441,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4482,10 +4470,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4511,10 +4499,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4540,10 +4528,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4569,10 +4557,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4598,10 +4586,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4627,10 +4615,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4714,10 +4702,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4801,10 +4789,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4830,10 +4818,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4859,10 +4847,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4888,10 +4876,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4917,10 +4905,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4946,10 +4934,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4975,10 +4963,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5004,10 +4992,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5033,10 +5021,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5062,10 +5050,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5091,10 +5079,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5120,10 +5108,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5149,10 +5137,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F136" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5178,10 +5166,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F137" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5207,10 +5195,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5236,10 +5224,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5265,10 +5253,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5294,10 +5282,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5323,10 +5311,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5352,10 +5340,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5381,10 +5369,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5410,10 +5398,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5439,10 +5427,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5468,10 +5456,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F147" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5526,10 +5514,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5555,10 +5543,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5584,10 +5572,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F151" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5613,10 +5601,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5642,10 +5630,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>8</v>
@@ -5671,10 +5659,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
